--- a/数据表/Dungeons.xlsx
+++ b/数据表/Dungeons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="t_dungeons" sheetId="1" r:id="rId1"/>
@@ -30,36 +30,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>//关卡表</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>类型（1=县城，2=省城，3=都城）</t>
-  </si>
-  <si>
-    <t>对手数（地块当前与几个敌方接触）</t>
-  </si>
-  <si>
-    <t>权重</t>
-  </si>
-  <si>
-    <t>地图id</t>
-  </si>
-  <si>
-    <t>兵种数量，对手的兵种数量</t>
-  </si>
-  <si>
-    <t>兵种库（兵种id，兵种随机权重）</t>
-  </si>
-  <si>
-    <t>玩家初始兵力</t>
-  </si>
-  <si>
-    <t>奖励</t>
-  </si>
   <si>
     <t>ID</t>
   </si>
@@ -95,6 +65,36 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>//关卡表</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>类型（1=县城，2=省城，3=都城）</t>
+  </si>
+  <si>
+    <t>对手数（地块当前与几个敌方接触）</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>地图id</t>
+  </si>
+  <si>
+    <t>兵种数量，对手的兵种数量</t>
+  </si>
+  <si>
+    <t>兵种库（兵种id，兵种随机权重）</t>
+  </si>
+  <si>
+    <t>玩家初始兵力</t>
+  </si>
+  <si>
+    <t>奖励</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:J291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1049,17 +1049,17 @@
     <col min="10" max="10" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:10">
+    <row r="1" ht="26" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1068,80 +1068,80 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="26" customHeight="1" spans="1:10">
+    <row r="2" ht="42" customHeight="1" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:10">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="42" customHeight="1" spans="1:10">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
